--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 11/02. Trả bảo hành/TBH_.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 11/02. Trả bảo hành/TBH_.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 11\02. Trả bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA59C3C-7361-403E-8497-5BA2BF6989EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="P.TraBaoHanh" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">P.TraBaoHanh!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
@@ -443,6 +444,39 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -463,39 +497,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,9 +572,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -611,9 +612,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -648,7 +649,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,7 +684,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -856,14 +857,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -883,77 +884,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="44" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="47" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="49"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="50" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="25"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -961,12 +962,12 @@
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -974,12 +975,12 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="25"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -987,12 +988,12 @@
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="25"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -1062,41 +1063,41 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
@@ -1154,17 +1155,17 @@
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1178,17 +1179,12 @@
       <c r="I22" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="B24:C24"/>
@@ -1202,6 +1198,11 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 11/02. Trả bảo hành/TBH_.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/Năm 2025/Tháng 11/02. Trả bảo hành/TBH_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\Năm 2025\Tháng 11\02. Trả bảo hành\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA59C3C-7361-403E-8497-5BA2BF6989EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF0045-2B2A-4280-915B-8EF2434725FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,15 +34,6 @@
     <t>IMEI</t>
   </si>
   <si>
-    <t>Phụ kiện</t>
-  </si>
-  <si>
-    <t>Lỗi xác định</t>
-  </si>
-  <si>
-    <t>Tính phí</t>
-  </si>
-  <si>
     <t>Bảo Hành</t>
   </si>
   <si>
@@ -70,28 +61,37 @@
     <t>Công Ty Cổ Phần Công Nghệ Điện Tử &amp; Viễn Thông Việt Nam</t>
   </si>
   <si>
-    <t>Giải pháp xử lý</t>
-  </si>
-  <si>
     <t>Điện thoại: 0243 6400 767</t>
   </si>
   <si>
     <t>(Ký, ghi rõ họ tên)</t>
   </si>
   <si>
-    <t>TBP. Bảo hành</t>
-  </si>
-  <si>
-    <t>Người lập</t>
-  </si>
-  <si>
     <t xml:space="preserve">Khách hàng/ người đại diện: </t>
   </si>
   <si>
-    <t>Hà Nội, ngày  tháng  năm 202</t>
-  </si>
-  <si>
     <t>PHIẾU TRẢ BẢO HÀNH</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày   tháng   năm</t>
+  </si>
+  <si>
+    <t>Phụ Kiện</t>
+  </si>
+  <si>
+    <t>Lỗi Xác Định</t>
+  </si>
+  <si>
+    <t>Giải Pháp Xử Lý</t>
+  </si>
+  <si>
+    <t>Phí Sửa Chữa</t>
+  </si>
+  <si>
+    <t>TBP. Bảo Hành</t>
+  </si>
+  <si>
+    <t>Người Lập</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -425,9 +425,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -444,6 +441,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -477,26 +486,38 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="13"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="17"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="18"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="18"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="18"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -864,7 +885,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -875,8 +896,8 @@
     <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19" style="2" customWidth="1"/>
     <col min="9" max="9" width="14" style="4" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
@@ -884,77 +905,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
-    </row>
-    <row r="5" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="25"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
@@ -962,12 +983,12 @@
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
+      <c r="A7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="25"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -975,12 +996,12 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
+      <c r="A8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="25"/>
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
@@ -988,12 +1009,12 @@
       <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
+      <c r="A9" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="25"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
@@ -1011,37 +1032,37 @@
         <v>2</v>
       </c>
       <c r="D10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>6</v>
-      </c>
       <c r="F10" s="21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
+      <c r="A11" s="29">
         <v>1</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1051,9 +1072,9 @@
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1063,109 +1084,109 @@
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
+      <c r="G14" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="A15" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="57"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="8"/>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="16"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="16"/>
       <c r="I20" s="17"/>
     </row>
     <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
+      <c r="A21" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
@@ -1179,33 +1200,26 @@
       <c r="I22" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A15:E15"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>